--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/20/seed5/result_data_KNN.xlsx
@@ -618,7 +618,7 @@
         <v>-22.23</v>
       </c>
       <c r="B11" t="n">
-        <v>5.590000000000001</v>
+        <v>6.661</v>
       </c>
       <c r="C11" t="n">
         <v>-13.87</v>
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.254</v>
+        <v>6.528999999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -686,7 +686,7 @@
         <v>-21.67</v>
       </c>
       <c r="B15" t="n">
-        <v>5.813999999999999</v>
+        <v>6.336</v>
       </c>
       <c r="C15" t="n">
         <v>-10.67</v>
